--- a/individual_results/avey/403.xlsx
+++ b/individual_results/avey/403.xlsx
@@ -516,25 +516,25 @@
         <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -562,25 +562,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0.3333333333333333</v>
@@ -608,24 +608,18 @@
         <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.25</v>
       </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0.5</v>
       </c>
@@ -652,24 +646,18 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3125</v>
-      </c>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="K5" t="n">
         <v>0.2941176470588235</v>
       </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0.3846153846153846</v>
       </c>
@@ -696,25 +684,25 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9467676761267002</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1375554841440053</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2015151419005024</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0.319393943239799</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6298989693877386</v>
+        <v>0.4702019977678391</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1375554841440053</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0.7452525342261976</v>
